--- a/expertise/expertise.xlsx
+++ b/expertise/expertise.xlsx
@@ -493,17 +493,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaIncompleta</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaAvviata</t>
+          <t>Assessment</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>AvvioPerizia</t>
         </is>
       </c>
     </row>
@@ -515,19 +510,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>AvvioPeriziaPostDesk</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Assessment</t>
+          <t>CollaborazionePerizia</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>CollabRifiutata</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaPostDesk</t>
+          <t>CollaborazioneRifiutata</t>
         </is>
       </c>
     </row>
@@ -539,12 +539,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>CollabRifiutata</t>
+          <t>CollabCompletata</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneRifiutata</t>
+          <t>CollaborazioneCompletata</t>
         </is>
       </c>
     </row>
@@ -556,36 +556,31 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>CollabCompletata</t>
+          <t>CollabCancellata</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCompletata</t>
+          <t>CollaborazioneCancellata</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>CollabCancellata</t>
+          <t>CollaborazioneRifiutata</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCancellata</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneRifiutata</t>
+          <t>CollaborazioneCompletata</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -597,7 +592,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCompletata</t>
+          <t>CollaborazioneCancellata</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -609,12 +604,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCancellata</t>
+          <t>RevisionePerizia</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
     </row>
@@ -626,36 +626,31 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>RevisioneCompletata</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -667,12 +662,17 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>EsecuzionePerizia</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>CollabAvviata</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
     </row>
@@ -684,12 +684,12 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>CollabAvviata</t>
+          <t>RevisioneAvviata</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>RevisionePerizia</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>RevisioneAvviata</t>
+          <t>CollabAvviata</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>CollabAvviata</t>
+          <t>CollaborazioneNonCompletata</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -735,12 +735,12 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneNonCompletata</t>
+          <t>RevisioneAvviata</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
@@ -752,12 +752,12 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>RevisioneAvviata</t>
+          <t>AuthorityNecessaria</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>VerificaAuthority</t>
         </is>
       </c>
     </row>
@@ -769,29 +769,29 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>AuthorityNecessaria</t>
+          <t>AuthorityNonNecessaria</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthority</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>AuthorityNonNecessaria</t>
+          <t>RevisioniCompletate</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
@@ -803,29 +803,29 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>RevisioniCompletate</t>
+          <t>RevisioniNonCompletate</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>VerificaAuthority</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>RevisioniNonCompletate</t>
+          <t>PeriziaNonApprovata</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
@@ -837,24 +837,24 @@
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>PeriziaNonApprovata</t>
+          <t>PeriziaApprovata</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthority</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>PeriziaApprovata</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
@@ -871,12 +871,12 @@
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>AccordoRaggiunto-o-NonRichiesto</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
@@ -888,12 +888,12 @@
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>AccordoRaggiunto-o-NonRichiesto</t>
+          <t>AccordoNonRaggiunto</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
     </row>
@@ -905,12 +905,12 @@
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>AccordoNonRaggiunto</t>
+          <t>EsitoScrittoEmail</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>ConciliazionePerizia</t>
+          <t>InvioEmailEsito</t>
         </is>
       </c>
     </row>
@@ -922,41 +922,41 @@
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>EsitoScrittoEmail</t>
+          <t>EsitoScrittoAtto</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>InvioEmailEsito</t>
+          <t>InvioAtto</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>EsitoScrittoAtto</t>
+          <t>Chiusura</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>InvioAtto</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>Chiusura</t>
+          <t>VerificaChiusura</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaIncompletaAvviata</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaIncompleta</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>ConfermaAccordo</t>
+          <t>PeriziaConcilazioneAvviata</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>ChiusuraConAccordo</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>ConciliazionePerizia</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
@@ -1002,41 +1002,41 @@
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>NonConfermaAccordo</t>
+          <t>ChiusuraSenzaAccordo</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaConciliazione</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>InvioEmailEsito</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>EmailEsitoInviata</t>
+          <t>DatiObbligatoriMancanti</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>AttesaRicezioneAtto</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>InvioAtto</t>
+          <t>InvioEmailEsito</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>AttoInviato</t>
+          <t>EmailEsitoInviata</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
@@ -1048,17 +1048,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
+          <t>InvioAtto</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>AttoInviato</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
           <t>AttesaRicezioneAtto</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>AccordoRaggiunto-o-NonRichiesto</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
@@ -1070,29 +1070,29 @@
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>AccordoNonRaggiunto</t>
+          <t>ForzaturaChiusura</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>ConciliazionePerizia</t>
+          <t>AvvioChiusura</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaConciliazione</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>PeriziaAvviata</t>
+          <t>ConciliazioneAvviata</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
     </row>

--- a/expertise/expertise.xlsx
+++ b/expertise/expertise.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,140 +459,155 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
           <t>AvvioPerizia</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaAvviata</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
           <t>AvvioPeriziaPostDesk</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaAvviata</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Assessment</t>
+          <t>AvvioPerizia</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaAvviata</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>AvvioPerizia</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Assessment</t>
+          <t>AvvioPeriziaPostDesk</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaAvviata</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>AvvioPeriziaPostDesk</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>CollabRifiutata</t>
+          <t>RevisioneAvviata</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneRifiutata</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>CollabCompletata</t>
+          <t>AuthorityNonNecessaria</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCompletata</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
+          <t>EsecuzionePerizia</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>CollabAvviata</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
           <t>CollaborazionePerizia</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>CollabCancellata</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>CollaborazioneCancellata</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneRifiutata</t>
+          <t>EsecuzionePerizia</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>RevisioneAvviata</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>RevisionePerizia</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCompletata</t>
+          <t>EsecuzionePerizia</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>AuthorityNecessaria</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>VerificaAuthority</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneCancellata</t>
+          <t>PeriziaInRevisione</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>RevisioniCompletate</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -604,121 +619,131 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>RevisioniNonCompletate</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>EsitoScrittoEmail</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>InvioEmailEsito</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>RevisioneRifiutata</t>
+          <t>ComunicazioneEsito</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>EsitoScrittoAtto</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>InvioAtto</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>RevisioneCompletata</t>
+          <t>ComunicazioneEsito</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>AccordoNonRaggiunto</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>ConciliazionePerizia</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>ComunicazioneEsito</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>CollabAvviata</t>
+          <t>AccordoRaggiunto-o-NonRichiesto</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>CollaborazionePerizia</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>InvioEmailEsito</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>RevisioneAvviata</t>
+          <t>EmailEsitoInviata</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>RevisionePerizia</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>InvioAtto</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>CollabAvviata</t>
+          <t>AttoInviato</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>AttesaRicezioneAtto</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>AuthorityNonApprovata</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>CollaborazioneNonCompletata</t>
+          <t>PeriziaNonApprovata</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -730,63 +755,58 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>RevisioneAvviata</t>
+          <t>CollabRifiutata</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>CollaborazioneRifiutata</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>AuthorityNecessaria</t>
+          <t>CollabCancellata</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthority</t>
+          <t>CollaborazioneCancellata</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>CollaborazionePerizia</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>AuthorityNonNecessaria</t>
+          <t>CollabCompletata</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>CollaborazioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>RevisioniCompletate</t>
+          <t>CollaborazioneRifiutata</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -798,29 +818,19 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>RevisioniNonCompletate</t>
+          <t>CollaborazioneCancellata</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>PeriziaInRevisione</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthority</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaNonApprovata</t>
+          <t>CollaborazioneCompletata</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -832,131 +842,121 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>VerificaAuthority</t>
+          <t>RevisionePerizia</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>PeriziaApprovata</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>RevisionePerizia</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>DatiObbligatoriMancanti</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>AccordoRaggiunto-o-NonRichiesto</t>
+          <t>RevisioneRifiutata</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>AccordoNonRaggiunto</t>
+          <t>RevisioneCompletata</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>ConciliazionePerizia</t>
+          <t>PeriziaInRevisione</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
+          <t>VerificaAuthority</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaApprovata</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
           <t>ComunicazioneEsito</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>EsitoScrittoEmail</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>InvioEmailEsito</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>ComunicazioneEsito</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>EsitoScrittoAtto</t>
+          <t>VerificaAuthority</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>InvioAtto</t>
+          <t>AuthorityNonApprovata</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>Chiusura</t>
+          <t>ConciliazionePerizia</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>PeriziaConcilazioneAvviata</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>VerificaChiusura</t>
+          <t>EsecuzionePeriziaConciliazione</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
+          <t>ConciliazionePerizia</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>ChiusuraConAccordo</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
           <t>VerificaChiusura</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>PeriziaIncompletaAvviata</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
@@ -968,131 +968,29 @@
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>PeriziaConcilazioneAvviata</t>
+          <t>ChiusuraSenzaAccordo</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>EsecuzionePerizia</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>ConciliazionePerizia</t>
+          <t>VerificaChiusura</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>ChiusuraConAccordo</t>
+          <t>PeriziaIncompletaAvviata</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>AvvioChiusura</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>ConciliazionePerizia</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>ChiusuraSenzaAccordo</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>AvvioChiusura</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>ConciliazionePerizia</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>DatiObbligatoriMancanti</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>ConciliazionePerizia</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>InvioEmailEsito</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>EmailEsitoInviata</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>AttesaRicezioneAtto</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>InvioAtto</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>AttoInviato</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>AttesaRicezioneAtto</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>AttesaRicezioneAtto</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>ForzaturaChiusura</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>AvvioChiusura</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>AttesaRicezioneAtto</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>ConciliazioneAvviata</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>ConciliazionePerizia</t>
+          <t>EsecuzionePerizia</t>
         </is>
       </c>
     </row>
